--- a/Assets/Resources/MasterData/MessageData.xlsx
+++ b/Assets/Resources/MasterData/MessageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD55AD-8A25-4270-B8B8-303B9F060DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130CC17A-AED4-48B9-B364-5F52F6ACED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/MessageData.xlsx
+++ b/Assets/Resources/MasterData/MessageData.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130CC17A-AED4-48B9-B364-5F52F6ACED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1244EF10-CF5C-4EC6-8776-FAD0FF470506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="-15615" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MessageData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +65,41 @@
       </rPr>
       <t>损伤</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}を拾えなかった</t>
+    <rPh sb="4" eb="5">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}を拾った</t>
+    <rPh sb="4" eb="5">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーションA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物B</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杖C</t>
+    <rPh sb="0" eb="1">
+      <t>ツエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -127,10 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -411,16 +456,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,6 +592,61 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
